--- a/docs/鍵盤設計規格_萌台語方音.xlsx
+++ b/docs/鍵盤設計規格_萌台語方音.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D93986D-49A3-4E4C-B5E9-9E9B897EEF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69786AB1-2A77-4D46-ACDF-2FCAB5B3369A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C51098D6-2BA5-4527-8590-72FA04FD8588}"/>
   </bookViews>
@@ -1571,7 +1571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1778,31 +1778,10 @@
     <xf numFmtId="0" fontId="37" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1826,7 +1805,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1838,6 +1817,110 @@
     <cellStyle name="一般 4" xfId="1" xr:uid="{C35B9AD6-B861-4A31-A217-74DDA2AFA6D0}"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF0070C0"/>
+        <name val="Noto Serif TC SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="28"/>
+        <color auto="1"/>
+        <name val="Iansui 094"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFF00"/>
+        <name val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1953,110 +2036,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFFFF00"/>
-        <name val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FF0070C0"/>
-        <name val="Noto Serif TC SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="28"/>
-        <color auto="1"/>
-        <name val="Iansui 094"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2195,9 +2174,9 @@
       <sheetName val="工作表3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="3">
           <cell r="W3" t="str">
@@ -2385,7 +2364,6 @@
           <cell r="W16" t="str">
             <v>r</v>
           </cell>
-          <cell r="AA16"/>
           <cell r="AB16" t="str">
             <v/>
           </cell>
@@ -2394,7 +2372,6 @@
           <cell r="W17" t="str">
             <v>f</v>
           </cell>
-          <cell r="AA17"/>
           <cell r="AB17" t="str">
             <v/>
           </cell>
@@ -2417,7 +2394,6 @@
           <cell r="W19">
             <v>5</v>
           </cell>
-          <cell r="AA19"/>
           <cell r="AB19" t="str">
             <v/>
           </cell>
@@ -2636,7 +2612,6 @@
           <cell r="W35">
             <v>9</v>
           </cell>
-          <cell r="AA35"/>
         </row>
         <row r="36">
           <cell r="W36" t="str">
@@ -2684,7 +2659,6 @@
           <cell r="W39">
             <v>0</v>
           </cell>
-          <cell r="AA39"/>
           <cell r="AB39" t="str">
             <v/>
           </cell>
@@ -2704,32 +2678,21 @@
           </cell>
         </row>
         <row r="41">
-          <cell r="AA41"/>
           <cell r="AB41" t="str">
             <v/>
           </cell>
         </row>
         <row r="42">
-          <cell r="AA42"/>
           <cell r="AB42" t="str">
             <v/>
           </cell>
         </row>
-        <row r="43">
-          <cell r="AA43"/>
-        </row>
-        <row r="44">
-          <cell r="AA44"/>
-        </row>
-        <row r="45">
-          <cell r="AA45"/>
-        </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2745,45 +2708,45 @@
     <tableColumn id="1" xr3:uid="{4B5B4591-2B5E-4098-BAB0-DB68D5AD9184}" name="鍵盤位置" dataDxfId="12">
       <calculatedColumnFormula>G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8C167905-9D73-4909-8712-255BECFAE41E}" name="字典編碼" dataDxfId="5" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{8C167905-9D73-4909-8712-255BECFAE41E}" name="字典編碼" dataDxfId="11" dataCellStyle="一般 4">
       <calculatedColumnFormula>F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{2B39C045-95F3-4942-B538-2A6427E8FFDE}" name="方音符號" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{2B39C045-95F3-4942-B538-2A6427E8FFDE}" name="方音符號" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{25447496-224A-4AAE-A97E-1A99A47BD02D}" name="表格1_3374" displayName="表格1_3374" ref="R2:T57" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{25447496-224A-4AAE-A97E-1A99A47BD02D}" name="表格1_3374" displayName="表格1_3374" ref="R2:T57" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="R2:T57" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:T56">
     <sortCondition ref="R3:R56" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{35A30276-2442-4D0C-97B2-3000D54AACC9}" name="鍵盤位置" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{35A30276-2442-4D0C-97B2-3000D54AACC9}" name="鍵盤位置" dataDxfId="8">
       <calculatedColumnFormula>G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4662BDF2-D491-4EF1-B17E-0F7E6B73FF49}" name="字典編碼" dataDxfId="1" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{4662BDF2-D491-4EF1-B17E-0F7E6B73FF49}" name="字典編碼" dataDxfId="7" dataCellStyle="一般 4">
       <calculatedColumnFormula>F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E7344833-5310-4AEB-83D9-42BAB6C08A8A}" name="方音符號" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E7344833-5310-4AEB-83D9-42BAB6C08A8A}" name="方音符號" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0046D82F-8548-4653-8A23-ADC94954BE0A}" name="表格1_3373" displayName="表格1_3373" ref="K4:N59" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0046D82F-8548-4653-8A23-ADC94954BE0A}" name="表格1_3373" displayName="表格1_3373" ref="K4:N59" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="K4:N59" xr:uid="{0046D82F-8548-4653-8A23-ADC94954BE0A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K5:N58">
     <sortCondition ref="K5:K58" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{21D69094-D352-45C2-80FB-BAAB1167765E}" name="鍵盤位置" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{149889D9-9B6F-4EE7-B137-5719FAB97256}" name="字典編碼" dataDxfId="10" dataCellStyle="一般 4"/>
-    <tableColumn id="2" xr3:uid="{5DA576F5-2521-40F0-A9D3-ABE41A6E8F32}" name="方音符號" dataDxfId="9" dataCellStyle="一般 4"/>
-    <tableColumn id="3" xr3:uid="{C8E1D126-07F8-47C6-A899-04D533843525}" name="國際音標" dataDxfId="8" dataCellStyle="一般 4">
+    <tableColumn id="1" xr3:uid="{21D69094-D352-45C2-80FB-BAAB1167765E}" name="鍵盤位置" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{149889D9-9B6F-4EE7-B137-5719FAB97256}" name="字典編碼" dataDxfId="2" dataCellStyle="一般 4"/>
+    <tableColumn id="2" xr3:uid="{5DA576F5-2521-40F0-A9D3-ABE41A6E8F32}" name="方音符號" dataDxfId="1" dataCellStyle="一般 4"/>
+    <tableColumn id="3" xr3:uid="{C8E1D126-07F8-47C6-A899-04D533843525}" name="國際音標" dataDxfId="0" dataCellStyle="一般 4">
       <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3237,7 +3200,7 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="90" t="str">
+      <c r="J3" s="83" t="str">
         <f t="shared" ref="J3:J34" si="2" xml:space="preserve"> IFERROR( MID($A$15, $E3, 1), "")</f>
         <v>1</v>
       </c>
@@ -3267,7 +3230,7 @@
         <f t="shared" ref="S3:S34" si="6">F3</f>
         <v>p</v>
       </c>
-      <c r="T3" s="91" t="s">
+      <c r="T3" s="84" t="s">
         <v>101</v>
       </c>
       <c r="V3" s="11" t="str">
@@ -3301,7 +3264,7 @@
       <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="90" t="str">
+      <c r="J4" s="83" t="str">
         <f t="shared" si="2"/>
         <v>!</v>
       </c>
@@ -3324,14 +3287,14 @@
         <v>2</v>
       </c>
       <c r="R4" s="2" t="str">
-        <f t="shared" ref="R3:R34" si="7">G4</f>
+        <f t="shared" ref="R4:R34" si="7">G4</f>
         <v>!</v>
       </c>
       <c r="S4" s="6" t="str">
         <f t="shared" si="6"/>
         <v>b</v>
       </c>
-      <c r="T4" s="91" t="s">
+      <c r="T4" s="84" t="s">
         <v>105</v>
       </c>
       <c r="V4" s="11" t="str">
@@ -3365,7 +3328,7 @@
       <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="J5" s="90" t="str">
+      <c r="J5" s="83" t="str">
         <f t="shared" si="2"/>
         <v>q</v>
       </c>
@@ -3395,7 +3358,7 @@
         <f t="shared" si="6"/>
         <v>P</v>
       </c>
-      <c r="T5" s="91" t="s">
+      <c r="T5" s="84" t="s">
         <v>102</v>
       </c>
       <c r="V5" s="11" t="str">
@@ -3433,7 +3396,7 @@
       <c r="I6" s="1">
         <v>4</v>
       </c>
-      <c r="J6" s="90" t="str">
+      <c r="J6" s="83" t="str">
         <f t="shared" si="2"/>
         <v>a</v>
       </c>
@@ -3463,7 +3426,7 @@
         <f t="shared" si="6"/>
         <v>m</v>
       </c>
-      <c r="T6" s="91" t="s">
+      <c r="T6" s="84" t="s">
         <v>107</v>
       </c>
       <c r="V6" s="11" t="str">
@@ -3501,7 +3464,7 @@
       <c r="I7" s="1">
         <v>5</v>
       </c>
-      <c r="J7" s="90" t="str">
+      <c r="J7" s="83" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -3531,7 +3494,7 @@
         <f t="shared" si="6"/>
         <v>t</v>
       </c>
-      <c r="T7" s="91" t="s">
+      <c r="T7" s="84" t="s">
         <v>108</v>
       </c>
       <c r="V7" s="11" t="str">
@@ -3561,7 +3524,7 @@
       <c r="I8" s="1">
         <v>6</v>
       </c>
-      <c r="J8" s="90" t="str">
+      <c r="J8" s="83" t="str">
         <f t="shared" si="2"/>
         <v>w</v>
       </c>
@@ -3591,7 +3554,7 @@
         <f t="shared" si="6"/>
         <v>T</v>
       </c>
-      <c r="T8" s="91" t="s">
+      <c r="T8" s="84" t="s">
         <v>109</v>
       </c>
       <c r="V8" s="11" t="str">
@@ -3621,7 +3584,7 @@
       <c r="I9" s="1">
         <v>7</v>
       </c>
-      <c r="J9" s="90" t="str">
+      <c r="J9" s="83" t="str">
         <f t="shared" si="2"/>
         <v>s</v>
       </c>
@@ -3651,7 +3614,7 @@
         <f t="shared" si="6"/>
         <v>n</v>
       </c>
-      <c r="T9" s="91" t="s">
+      <c r="T9" s="84" t="s">
         <v>112</v>
       </c>
       <c r="V9" s="11" t="str">
@@ -3684,7 +3647,7 @@
       <c r="I10" s="1">
         <v>8</v>
       </c>
-      <c r="J10" s="90" t="str">
+      <c r="J10" s="83" t="str">
         <f t="shared" si="2"/>
         <v>x</v>
       </c>
@@ -3714,7 +3677,7 @@
         <f t="shared" si="6"/>
         <v>l</v>
       </c>
-      <c r="T10" s="91" t="s">
+      <c r="T10" s="84" t="s">
         <v>113</v>
       </c>
       <c r="V10" s="11" t="str">
@@ -3747,7 +3710,7 @@
       <c r="I11" s="1">
         <v>9</v>
       </c>
-      <c r="J11" s="90" t="str">
+      <c r="J11" s="83" t="str">
         <f t="shared" si="2"/>
         <v>e</v>
       </c>
@@ -3777,7 +3740,7 @@
         <f t="shared" si="6"/>
         <v>k</v>
       </c>
-      <c r="T11" s="91" t="s">
+      <c r="T11" s="84" t="s">
         <v>115</v>
       </c>
       <c r="V11" s="11" t="str">
@@ -3811,7 +3774,7 @@
       <c r="I12" s="1">
         <v>10</v>
       </c>
-      <c r="J12" s="90" t="str">
+      <c r="J12" s="83" t="str">
         <f t="shared" si="2"/>
         <v>E</v>
       </c>
@@ -3841,7 +3804,7 @@
         <f t="shared" si="6"/>
         <v>g</v>
       </c>
-      <c r="T12" s="91" t="s">
+      <c r="T12" s="84" t="s">
         <v>119</v>
       </c>
       <c r="V12" s="11" t="str">
@@ -3875,7 +3838,7 @@
       <c r="I13" s="1">
         <v>11</v>
       </c>
-      <c r="J13" s="90" t="str">
+      <c r="J13" s="83" t="str">
         <f t="shared" si="2"/>
         <v>d</v>
       </c>
@@ -3905,7 +3868,7 @@
         <f t="shared" si="6"/>
         <v>K</v>
       </c>
-      <c r="T13" s="91" t="s">
+      <c r="T13" s="84" t="s">
         <v>116</v>
       </c>
       <c r="V13" s="11" t="str">
@@ -3939,7 +3902,7 @@
       <c r="I14" s="1">
         <v>12</v>
       </c>
-      <c r="J14" s="90" t="str">
+      <c r="J14" s="83" t="str">
         <f t="shared" si="2"/>
         <v>D</v>
       </c>
@@ -3969,7 +3932,7 @@
         <f t="shared" si="6"/>
         <v>G</v>
       </c>
-      <c r="T14" s="91" t="s">
+      <c r="T14" s="84" t="s">
         <v>121</v>
       </c>
       <c r="V14" s="11" t="str">
@@ -4007,7 +3970,7 @@
       <c r="I15" s="1">
         <v>13</v>
       </c>
-      <c r="J15" s="90" t="str">
+      <c r="J15" s="83" t="str">
         <f t="shared" si="2"/>
         <v>c</v>
       </c>
@@ -4037,7 +4000,7 @@
         <f t="shared" si="6"/>
         <v>h</v>
       </c>
-      <c r="T15" s="91" t="s">
+      <c r="T15" s="84" t="s">
         <v>133</v>
       </c>
       <c r="V15" s="11" t="str">
@@ -4075,7 +4038,7 @@
       <c r="I16" s="1">
         <v>14</v>
       </c>
-      <c r="J16" s="90" t="str">
+      <c r="J16" s="83" t="str">
         <f t="shared" si="2"/>
         <v>r</v>
       </c>
@@ -4105,7 +4068,7 @@
         <f t="shared" si="6"/>
         <v>Z</v>
       </c>
-      <c r="T16" s="91" t="s">
+      <c r="T16" s="84" t="s">
         <v>190</v>
       </c>
       <c r="V16" s="11" t="str">
@@ -4135,7 +4098,7 @@
       <c r="I17" s="1">
         <v>15</v>
       </c>
-      <c r="J17" s="90" t="str">
+      <c r="J17" s="83" t="str">
         <f t="shared" si="2"/>
         <v>R</v>
       </c>
@@ -4165,7 +4128,7 @@
         <f t="shared" si="6"/>
         <v>J</v>
       </c>
-      <c r="T17" s="91" t="s">
+      <c r="T17" s="84" t="s">
         <v>192</v>
       </c>
       <c r="V17" s="11" t="str">
@@ -4195,7 +4158,7 @@
       <c r="I18" s="1">
         <v>16</v>
       </c>
-      <c r="J18" s="90" t="str">
+      <c r="J18" s="83" t="str">
         <f t="shared" si="2"/>
         <v>f</v>
       </c>
@@ -4225,7 +4188,7 @@
         <f t="shared" si="6"/>
         <v>C</v>
       </c>
-      <c r="T18" s="91" t="s">
+      <c r="T18" s="84" t="s">
         <v>191</v>
       </c>
       <c r="V18" s="11" t="str">
@@ -4255,7 +4218,7 @@
       <c r="I19" s="1">
         <v>17</v>
       </c>
-      <c r="J19" s="90" t="str">
+      <c r="J19" s="83" t="str">
         <f t="shared" si="2"/>
         <v>v</v>
       </c>
@@ -4285,7 +4248,7 @@
         <f t="shared" si="6"/>
         <v>S</v>
       </c>
-      <c r="T19" s="91" t="s">
+      <c r="T19" s="84" t="s">
         <v>193</v>
       </c>
       <c r="V19" s="11" t="str">
@@ -4318,7 +4281,7 @@
       <c r="I20" s="1">
         <v>18</v>
       </c>
-      <c r="J20" s="90" t="str">
+      <c r="J20" s="83" t="str">
         <f t="shared" si="2"/>
         <v>y</v>
       </c>
@@ -4348,7 +4311,7 @@
         <f t="shared" si="6"/>
         <v>z</v>
       </c>
-      <c r="T20" s="91" t="s">
+      <c r="T20" s="84" t="s">
         <v>123</v>
       </c>
       <c r="V20" s="11" t="str">
@@ -4381,7 +4344,7 @@
       <c r="I21" s="1">
         <v>19</v>
       </c>
-      <c r="J21" s="90" t="str">
+      <c r="J21" s="83" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
@@ -4411,7 +4374,7 @@
         <f t="shared" si="6"/>
         <v>j</v>
       </c>
-      <c r="T21" s="91" t="s">
+      <c r="T21" s="84" t="s">
         <v>129</v>
       </c>
       <c r="V21" s="11" t="str">
@@ -4445,7 +4408,7 @@
       <c r="I22" s="1">
         <v>20</v>
       </c>
-      <c r="J22" s="90" t="str">
+      <c r="J22" s="83" t="str">
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
@@ -4475,7 +4438,7 @@
         <f t="shared" si="6"/>
         <v>c</v>
       </c>
-      <c r="T22" s="91" t="s">
+      <c r="T22" s="84" t="s">
         <v>126</v>
       </c>
       <c r="V22" s="11" t="str">
@@ -4509,7 +4472,7 @@
       <c r="I23" s="1">
         <v>21</v>
       </c>
-      <c r="J23" s="90" t="str">
+      <c r="J23" s="83" t="str">
         <f t="shared" si="2"/>
         <v>n</v>
       </c>
@@ -4539,7 +4502,7 @@
         <f t="shared" si="6"/>
         <v>s</v>
       </c>
-      <c r="T23" s="91" t="s">
+      <c r="T23" s="84" t="s">
         <v>132</v>
       </c>
       <c r="V23" s="11" t="str">
@@ -4573,7 +4536,7 @@
       <c r="I24" s="1">
         <v>22</v>
       </c>
-      <c r="J24" s="90" t="str">
+      <c r="J24" s="83" t="str">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -4603,7 +4566,7 @@
         <f t="shared" si="6"/>
         <v>a</v>
       </c>
-      <c r="T24" s="91" t="s">
+      <c r="T24" s="84" t="s">
         <v>136</v>
       </c>
       <c r="V24" s="11" t="str">
@@ -4641,7 +4604,7 @@
       <c r="I25" s="1">
         <v>23</v>
       </c>
-      <c r="J25" s="90" t="str">
+      <c r="J25" s="83" t="str">
         <f t="shared" si="2"/>
         <v>*</v>
       </c>
@@ -4671,7 +4634,7 @@
         <f t="shared" si="6"/>
         <v>A</v>
       </c>
-      <c r="T25" s="91" t="s">
+      <c r="T25" s="84" t="s">
         <v>170</v>
       </c>
       <c r="V25" s="11" t="str">
@@ -4709,7 +4672,7 @@
       <c r="I26" s="1">
         <v>24</v>
       </c>
-      <c r="J26" s="90" t="str">
+      <c r="J26" s="83" t="str">
         <f t="shared" si="2"/>
         <v>i</v>
       </c>
@@ -4739,7 +4702,7 @@
         <f t="shared" si="6"/>
         <v>O</v>
       </c>
-      <c r="T26" s="91" t="s">
+      <c r="T26" s="84" t="s">
         <v>137</v>
       </c>
       <c r="V26" s="11" t="str">
@@ -4769,7 +4732,7 @@
       <c r="I27" s="1">
         <v>25</v>
       </c>
-      <c r="J27" s="90" t="str">
+      <c r="J27" s="83" t="str">
         <f t="shared" si="2"/>
         <v>I</v>
       </c>
@@ -4799,7 +4762,7 @@
         <f t="shared" si="6"/>
         <v>Q</v>
       </c>
-      <c r="T27" s="91" t="s">
+      <c r="T27" s="84" t="s">
         <v>173</v>
       </c>
       <c r="V27" s="11" t="str">
@@ -4829,7 +4792,7 @@
       <c r="I28" s="1">
         <v>26</v>
       </c>
-      <c r="J28" s="90" t="str">
+      <c r="J28" s="83" t="str">
         <f t="shared" si="2"/>
         <v>k</v>
       </c>
@@ -4859,7 +4822,7 @@
         <f t="shared" si="6"/>
         <v>o</v>
       </c>
-      <c r="T28" s="91" t="s">
+      <c r="T28" s="84" t="s">
         <v>139</v>
       </c>
       <c r="V28" s="11" t="str">
@@ -4889,7 +4852,7 @@
       <c r="I29" s="1">
         <v>27</v>
       </c>
-      <c r="J29" s="90" t="str">
+      <c r="J29" s="83" t="str">
         <f t="shared" si="2"/>
         <v>o</v>
       </c>
@@ -4919,7 +4882,7 @@
         <f t="shared" si="6"/>
         <v>e</v>
       </c>
-      <c r="T29" s="91" t="s">
+      <c r="T29" s="84" t="s">
         <v>214</v>
       </c>
       <c r="V29" s="11" t="str">
@@ -4949,7 +4912,7 @@
       <c r="I30" s="1">
         <v>28</v>
       </c>
-      <c r="J30" s="90" t="str">
+      <c r="J30" s="83" t="str">
         <f t="shared" si="2"/>
         <v>O</v>
       </c>
@@ -4979,7 +4942,7 @@
         <f t="shared" si="6"/>
         <v>E</v>
       </c>
-      <c r="T30" s="91" t="s">
+      <c r="T30" s="84" t="s">
         <v>214</v>
       </c>
       <c r="V30" s="11" t="str">
@@ -5009,7 +4972,7 @@
       <c r="I31" s="1">
         <v>29</v>
       </c>
-      <c r="J31" s="90" t="str">
+      <c r="J31" s="83" t="str">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -5039,7 +5002,7 @@
         <f t="shared" si="6"/>
         <v>y</v>
       </c>
-      <c r="T31" s="91" t="s">
+      <c r="T31" s="84" t="s">
         <v>149</v>
       </c>
       <c r="V31" s="11" t="str">
@@ -5069,7 +5032,7 @@
       <c r="I32" s="1">
         <v>30</v>
       </c>
-      <c r="J32" s="90" t="str">
+      <c r="J32" s="83" t="str">
         <f t="shared" si="2"/>
         <v>(</v>
       </c>
@@ -5099,7 +5062,7 @@
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="T32" s="91" t="s">
+      <c r="T32" s="84" t="s">
         <v>177</v>
       </c>
       <c r="V32" s="11" t="str">
@@ -5129,7 +5092,7 @@
       <c r="I33" s="1">
         <v>31</v>
       </c>
-      <c r="J33" s="90" t="str">
+      <c r="J33" s="83" t="str">
         <f t="shared" si="2"/>
         <v>l</v>
       </c>
@@ -5159,7 +5122,7 @@
         <f t="shared" si="6"/>
         <v>x</v>
       </c>
-      <c r="T33" s="91" t="s">
+      <c r="T33" s="84" t="s">
         <v>153</v>
       </c>
       <c r="V33" s="11" t="str">
@@ -5189,7 +5152,7 @@
       <c r="I34" s="1">
         <v>32</v>
       </c>
-      <c r="J34" s="90" t="str">
+      <c r="J34" s="83" t="str">
         <f t="shared" si="2"/>
         <v>L</v>
       </c>
@@ -5219,7 +5182,7 @@
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="T34" s="91" t="s">
+      <c r="T34" s="84" t="s">
         <v>180</v>
       </c>
       <c r="V34" s="11" t="str">
@@ -5249,7 +5212,7 @@
       <c r="I35" s="1">
         <v>33</v>
       </c>
-      <c r="J35" s="90" t="str">
+      <c r="J35" s="83" t="str">
         <f t="shared" ref="J35:J57" si="10" xml:space="preserve"> IFERROR( MID($A$15, $E35, 1), "")</f>
         <v>,</v>
       </c>
@@ -5279,7 +5242,7 @@
         <f t="shared" ref="S35:S47" si="13">F35</f>
         <v>{</v>
       </c>
-      <c r="T35" s="91" t="s">
+      <c r="T35" s="84" t="s">
         <v>182</v>
       </c>
       <c r="V35" s="11" t="str">
@@ -5309,7 +5272,7 @@
       <c r="I36" s="1">
         <v>34</v>
       </c>
-      <c r="J36" s="90" t="str">
+      <c r="J36" s="83" t="str">
         <f t="shared" si="10"/>
         <v>&lt;</v>
       </c>
@@ -5339,7 +5302,7 @@
         <f t="shared" si="13"/>
         <v>}</v>
       </c>
-      <c r="T36" s="91" t="s">
+      <c r="T36" s="84" t="s">
         <v>184</v>
       </c>
       <c r="V36" s="11" t="str">
@@ -5369,7 +5332,7 @@
       <c r="I37" s="1">
         <v>35</v>
       </c>
-      <c r="J37" s="90" t="str">
+      <c r="J37" s="83" t="str">
         <f t="shared" si="10"/>
         <v>m</v>
       </c>
@@ -5399,7 +5362,7 @@
         <f t="shared" si="13"/>
         <v>M</v>
       </c>
-      <c r="T37" s="91" t="s">
+      <c r="T37" s="84" t="s">
         <v>155</v>
       </c>
       <c r="V37" s="11" t="str">
@@ -5429,7 +5392,7 @@
       <c r="I38" s="1">
         <v>36</v>
       </c>
-      <c r="J38" s="90" t="str">
+      <c r="J38" s="83" t="str">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5459,7 +5422,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T38" s="91" t="s">
+      <c r="T38" s="84" t="s">
         <v>151</v>
       </c>
       <c r="V38" s="11" t="str">
@@ -5489,7 +5452,7 @@
       <c r="I39" s="1">
         <v>37</v>
       </c>
-      <c r="J39" s="90" t="str">
+      <c r="J39" s="83" t="str">
         <f t="shared" si="10"/>
         <v>p</v>
       </c>
@@ -5519,7 +5482,7 @@
         <f t="shared" si="13"/>
         <v>N</v>
       </c>
-      <c r="T39" s="91" t="s">
+      <c r="T39" s="84" t="s">
         <v>141</v>
       </c>
       <c r="V39" s="11" t="str">
@@ -5549,7 +5512,7 @@
       <c r="I40" s="1">
         <v>38</v>
       </c>
-      <c r="J40" s="90" t="str">
+      <c r="J40" s="83" t="str">
         <f t="shared" si="10"/>
         <v>;</v>
       </c>
@@ -5579,7 +5542,7 @@
         <f t="shared" si="13"/>
         <v>[</v>
       </c>
-      <c r="T40" s="91" t="s">
+      <c r="T40" s="84" t="s">
         <v>143</v>
       </c>
       <c r="V40" s="11" t="str">
@@ -5609,7 +5572,7 @@
       <c r="I41" s="1">
         <v>39</v>
       </c>
-      <c r="J41" s="90" t="str">
+      <c r="J41" s="83" t="str">
         <f t="shared" si="10"/>
         <v>:</v>
       </c>
@@ -5639,7 +5602,7 @@
         <f t="shared" si="13"/>
         <v>]</v>
       </c>
-      <c r="T41" s="91" t="s">
+      <c r="T41" s="84" t="s">
         <v>187</v>
       </c>
       <c r="V41" s="11" t="str">
@@ -5669,7 +5632,7 @@
       <c r="I42" s="1">
         <v>40</v>
       </c>
-      <c r="J42" s="90" t="str">
+      <c r="J42" s="83" t="str">
         <f t="shared" si="10"/>
         <v>/</v>
       </c>
@@ -5699,7 +5662,7 @@
         <f t="shared" si="13"/>
         <v>R</v>
       </c>
-      <c r="T42" s="91" t="s">
+      <c r="T42" s="84" t="s">
         <v>146</v>
       </c>
       <c r="V42" s="11" t="str">
@@ -5729,7 +5692,7 @@
       <c r="I43" s="1">
         <v>41</v>
       </c>
-      <c r="J43" s="90" t="str">
+      <c r="J43" s="83" t="str">
         <f t="shared" si="10"/>
         <v>-</v>
       </c>
@@ -5759,7 +5722,7 @@
         <f t="shared" si="13"/>
         <v>r</v>
       </c>
-      <c r="T43" s="91" t="s">
+      <c r="T43" s="84" t="s">
         <v>189</v>
       </c>
       <c r="V43" s="11" t="str">
@@ -5789,7 +5752,7 @@
       <c r="I44" s="1">
         <v>42</v>
       </c>
-      <c r="J44" s="90" t="str">
+      <c r="J44" s="83" t="str">
         <f t="shared" si="10"/>
         <v>u</v>
       </c>
@@ -5819,7 +5782,7 @@
         <f t="shared" si="13"/>
         <v>i</v>
       </c>
-      <c r="T44" s="91" t="s">
+      <c r="T44" s="84" t="s">
         <v>134</v>
       </c>
       <c r="V44" s="11" t="str">
@@ -5849,7 +5812,7 @@
       <c r="I45" s="1">
         <v>43</v>
       </c>
-      <c r="J45" s="90" t="str">
+      <c r="J45" s="83" t="str">
         <f t="shared" si="10"/>
         <v>U</v>
       </c>
@@ -5869,7 +5832,7 @@
         <f t="shared" si="13"/>
         <v>I</v>
       </c>
-      <c r="T45" s="91" t="s">
+      <c r="T45" s="84" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5889,7 +5852,7 @@
       <c r="I46" s="1">
         <v>44</v>
       </c>
-      <c r="J46" s="90" t="str">
+      <c r="J46" s="83" t="str">
         <f t="shared" si="10"/>
         <v>j</v>
       </c>
@@ -5908,10 +5871,10 @@
         <f t="shared" si="13"/>
         <v>u</v>
       </c>
-      <c r="T46" s="91" t="s">
+      <c r="T46" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="V46" s="92" t="str">
+      <c r="V46" s="85" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(S3:S23)</f>
         <v>pbPmtTnlkgKGhZJCSzjcs</v>
       </c>
@@ -5932,7 +5895,7 @@
       <c r="I47" s="1">
         <v>45</v>
       </c>
-      <c r="J47" s="90" t="str">
+      <c r="J47" s="83" t="str">
         <f t="shared" si="10"/>
         <v>J</v>
       </c>
@@ -5951,7 +5914,7 @@
         <f t="shared" si="13"/>
         <v>U</v>
       </c>
-      <c r="T47" s="91" t="s">
+      <c r="T47" s="84" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5971,7 +5934,7 @@
       <c r="I48" s="1">
         <v>46</v>
       </c>
-      <c r="J48" s="90" t="str">
+      <c r="J48" s="83" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5990,7 +5953,7 @@
         <f>F51</f>
         <v>9</v>
       </c>
-      <c r="T48" s="91" t="s">
+      <c r="T48" s="84" t="s">
         <v>194</v>
       </c>
     </row>
@@ -6010,7 +5973,7 @@
       <c r="I49" s="1">
         <v>47</v>
       </c>
-      <c r="J49" s="90" t="str">
+      <c r="J49" s="83" t="str">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
@@ -6029,7 +5992,7 @@
         <f>F52</f>
         <v>&gt;</v>
       </c>
-      <c r="T49" s="91" t="s">
+      <c r="T49" s="84" t="s">
         <v>195</v>
       </c>
       <c r="V49" t="s">
@@ -6052,7 +6015,7 @@
       <c r="I50" s="1">
         <v>48</v>
       </c>
-      <c r="J50" s="90" t="str">
+      <c r="J50" s="83" t="str">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
@@ -6071,7 +6034,7 @@
         <f>F53</f>
         <v>&lt;</v>
       </c>
-      <c r="T50" s="91" t="s">
+      <c r="T50" s="84" t="s">
         <v>196</v>
       </c>
       <c r="V50">
@@ -6095,7 +6058,7 @@
       <c r="I51" s="1">
         <v>49</v>
       </c>
-      <c r="J51" s="90" t="str">
+      <c r="J51" s="83" t="str">
         <f t="shared" si="10"/>
         <v>b</v>
       </c>
@@ -6114,7 +6077,7 @@
         <f>F54</f>
         <v>4</v>
       </c>
-      <c r="T51" s="91" t="s">
+      <c r="T51" s="84" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6134,7 +6097,7 @@
       <c r="I52" s="1">
         <v>50</v>
       </c>
-      <c r="J52" s="90" t="str">
+      <c r="J52" s="83" t="str">
         <f t="shared" si="10"/>
         <v>t</v>
       </c>
@@ -6153,7 +6116,7 @@
         <f>F48</f>
         <v>1</v>
       </c>
-      <c r="T52" s="91" t="s">
+      <c r="T52" s="84" t="s">
         <v>158</v>
       </c>
       <c r="V52" t="str">
@@ -6177,7 +6140,7 @@
       <c r="I53" s="1">
         <v>51</v>
       </c>
-      <c r="J53" s="90" t="str">
+      <c r="J53" s="83" t="str">
         <f t="shared" si="10"/>
         <v>g</v>
       </c>
@@ -6196,7 +6159,7 @@
         <f>F49</f>
         <v>2</v>
       </c>
-      <c r="T53" s="91" t="s">
+      <c r="T53" s="84" t="s">
         <v>161</v>
       </c>
     </row>
@@ -6216,7 +6179,7 @@
       <c r="I54" s="1">
         <v>52</v>
       </c>
-      <c r="J54" s="90" t="str">
+      <c r="J54" s="83" t="str">
         <f t="shared" si="10"/>
         <v>z</v>
       </c>
@@ -6235,7 +6198,7 @@
         <f>F50</f>
         <v>3</v>
       </c>
-      <c r="T54" s="91" t="s">
+      <c r="T54" s="84" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6255,7 +6218,7 @@
       <c r="I55" s="1">
         <v>53</v>
       </c>
-      <c r="J55" s="90" t="str">
+      <c r="J55" s="83" t="str">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
@@ -6274,7 +6237,7 @@
         <f>F55</f>
         <v>5</v>
       </c>
-      <c r="T55" s="91" t="s">
+      <c r="T55" s="84" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6294,7 +6257,7 @@
       <c r="I56" s="1">
         <v>54</v>
       </c>
-      <c r="J56" s="90" t="str">
+      <c r="J56" s="83" t="str">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -6313,7 +6276,7 @@
         <f>F56</f>
         <v>7</v>
       </c>
-      <c r="T56" s="91" t="s">
+      <c r="T56" s="84" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6333,7 +6296,7 @@
       <c r="I57" s="1">
         <v>55</v>
       </c>
-      <c r="J57" s="90" t="str">
+      <c r="J57" s="83" t="str">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -6352,7 +6315,7 @@
         <f>F57</f>
         <v>8</v>
       </c>
-      <c r="T57" s="91" t="s">
+      <c r="T57" s="84" t="s">
         <v>162</v>
       </c>
     </row>
@@ -6561,7 +6524,7 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="90" t="s">
+      <c r="J3" s="83" t="s">
         <v>208</v>
       </c>
       <c r="K3" s="7" t="s">
@@ -6589,7 +6552,7 @@
         <f t="shared" ref="S3:S47" si="2">F3</f>
         <v>p</v>
       </c>
-      <c r="T3" s="91" t="s">
+      <c r="T3" s="84" t="s">
         <v>101</v>
       </c>
       <c r="V3" s="11" t="str">
@@ -6620,7 +6583,7 @@
       <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="90" t="s">
+      <c r="J4" s="83" t="s">
         <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -6648,7 +6611,7 @@
         <f t="shared" si="2"/>
         <v>b</v>
       </c>
-      <c r="T4" s="91" t="s">
+      <c r="T4" s="84" t="s">
         <v>105</v>
       </c>
       <c r="V4" s="11" t="str">
@@ -6679,7 +6642,7 @@
       <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="J5" s="90" t="s">
+      <c r="J5" s="83" t="s">
         <v>104</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -6707,7 +6670,7 @@
         <f t="shared" si="2"/>
         <v>P</v>
       </c>
-      <c r="T5" s="91" t="s">
+      <c r="T5" s="84" t="s">
         <v>102</v>
       </c>
       <c r="V5" s="11" t="str">
@@ -6742,7 +6705,7 @@
       <c r="I6" s="1">
         <v>4</v>
       </c>
-      <c r="J6" s="90" t="s">
+      <c r="J6" s="83" t="s">
         <v>35</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -6770,7 +6733,7 @@
         <f t="shared" si="2"/>
         <v>m</v>
       </c>
-      <c r="T6" s="91" t="s">
+      <c r="T6" s="84" t="s">
         <v>107</v>
       </c>
       <c r="V6" s="11" t="str">
@@ -6805,7 +6768,7 @@
       <c r="I7" s="1">
         <v>5</v>
       </c>
-      <c r="J7" s="90" t="s">
+      <c r="J7" s="83" t="s">
         <v>209</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -6833,7 +6796,7 @@
         <f t="shared" si="2"/>
         <v>t</v>
       </c>
-      <c r="T7" s="91" t="s">
+      <c r="T7" s="84" t="s">
         <v>108</v>
       </c>
       <c r="V7" s="11" t="str">
@@ -6860,7 +6823,7 @@
       <c r="I8" s="1">
         <v>6</v>
       </c>
-      <c r="J8" s="90" t="s">
+      <c r="J8" s="83" t="s">
         <v>111</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -6888,7 +6851,7 @@
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="T8" s="91" t="s">
+      <c r="T8" s="84" t="s">
         <v>109</v>
       </c>
       <c r="V8" s="11" t="str">
@@ -6915,7 +6878,7 @@
       <c r="I9" s="1">
         <v>7</v>
       </c>
-      <c r="J9" s="90" t="s">
+      <c r="J9" s="83" t="s">
         <v>43</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -6943,7 +6906,7 @@
         <f t="shared" si="2"/>
         <v>n</v>
       </c>
-      <c r="T9" s="91" t="s">
+      <c r="T9" s="84" t="s">
         <v>112</v>
       </c>
       <c r="V9" s="11" t="str">
@@ -6973,7 +6936,7 @@
       <c r="I10" s="1">
         <v>8</v>
       </c>
-      <c r="J10" s="90" t="s">
+      <c r="J10" s="83" t="s">
         <v>114</v>
       </c>
       <c r="K10" s="7" t="s">
@@ -7001,7 +6964,7 @@
         <f t="shared" si="2"/>
         <v>l</v>
       </c>
-      <c r="T10" s="91" t="s">
+      <c r="T10" s="84" t="s">
         <v>113</v>
       </c>
       <c r="V10" s="11" t="str">
@@ -7032,7 +6995,7 @@
       <c r="I11" s="1">
         <v>9</v>
       </c>
-      <c r="J11" s="90" t="s">
+      <c r="J11" s="83" t="s">
         <v>27</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -7060,7 +7023,7 @@
         <f t="shared" si="2"/>
         <v>k</v>
       </c>
-      <c r="T11" s="91" t="s">
+      <c r="T11" s="84" t="s">
         <v>115</v>
       </c>
       <c r="V11" s="11" t="str">
@@ -7091,7 +7054,7 @@
       <c r="I12" s="1">
         <v>10</v>
       </c>
-      <c r="J12" s="90" t="s">
+      <c r="J12" s="83" t="s">
         <v>120</v>
       </c>
       <c r="K12" s="7" t="s">
@@ -7119,7 +7082,7 @@
         <f t="shared" si="2"/>
         <v>g</v>
       </c>
-      <c r="T12" s="91" t="s">
+      <c r="T12" s="84" t="s">
         <v>119</v>
       </c>
       <c r="V12" s="11" t="str">
@@ -7150,7 +7113,7 @@
       <c r="I13" s="1">
         <v>11</v>
       </c>
-      <c r="J13" s="90" t="s">
+      <c r="J13" s="83" t="s">
         <v>118</v>
       </c>
       <c r="K13" s="7" t="s">
@@ -7178,7 +7141,7 @@
         <f t="shared" si="2"/>
         <v>K</v>
       </c>
-      <c r="T13" s="91" t="s">
+      <c r="T13" s="84" t="s">
         <v>116</v>
       </c>
       <c r="V13" s="11" t="str">
@@ -7209,7 +7172,7 @@
       <c r="I14" s="1">
         <v>12</v>
       </c>
-      <c r="J14" s="90" t="s">
+      <c r="J14" s="83" t="s">
         <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
@@ -7237,7 +7200,7 @@
         <f t="shared" si="2"/>
         <v>G</v>
       </c>
-      <c r="T14" s="91" t="s">
+      <c r="T14" s="84" t="s">
         <v>121</v>
       </c>
       <c r="V14" s="11" t="str">
@@ -7272,7 +7235,7 @@
       <c r="I15" s="1">
         <v>13</v>
       </c>
-      <c r="J15" s="90" t="s">
+      <c r="J15" s="83" t="s">
         <v>124</v>
       </c>
       <c r="K15" s="7" t="s">
@@ -7300,7 +7263,7 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="T15" s="91" t="s">
+      <c r="T15" s="84" t="s">
         <v>133</v>
       </c>
       <c r="V15" s="11" t="str">
@@ -7335,7 +7298,7 @@
       <c r="I16" s="1">
         <v>14</v>
       </c>
-      <c r="J16" s="90" t="s">
+      <c r="J16" s="83" t="s">
         <v>188</v>
       </c>
       <c r="K16" s="7" t="s">
@@ -7363,7 +7326,7 @@
         <f t="shared" si="2"/>
         <v>Z</v>
       </c>
-      <c r="T16" s="91" t="s">
+      <c r="T16" s="84" t="s">
         <v>190</v>
       </c>
       <c r="V16" s="11" t="str">
@@ -7390,7 +7353,7 @@
       <c r="I17" s="1">
         <v>15</v>
       </c>
-      <c r="J17" s="90" t="s">
+      <c r="J17" s="83" t="s">
         <v>171</v>
       </c>
       <c r="K17" s="7" t="s">
@@ -7418,7 +7381,7 @@
         <f t="shared" si="2"/>
         <v>J</v>
       </c>
-      <c r="T17" s="91" t="s">
+      <c r="T17" s="84" t="s">
         <v>192</v>
       </c>
       <c r="V17" s="11" t="str">
@@ -7445,7 +7408,7 @@
       <c r="I18" s="1">
         <v>16</v>
       </c>
-      <c r="J18" s="90" t="s">
+      <c r="J18" s="83" t="s">
         <v>186</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -7473,7 +7436,7 @@
         <f t="shared" si="2"/>
         <v>C</v>
       </c>
-      <c r="T18" s="91" t="s">
+      <c r="T18" s="84" t="s">
         <v>191</v>
       </c>
       <c r="V18" s="11" t="str">
@@ -7500,7 +7463,7 @@
       <c r="I19" s="1">
         <v>17</v>
       </c>
-      <c r="J19" s="90" t="s">
+      <c r="J19" s="83" t="s">
         <v>122</v>
       </c>
       <c r="K19" s="7" t="s">
@@ -7528,7 +7491,7 @@
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="T19" s="91" t="s">
+      <c r="T19" s="84" t="s">
         <v>193</v>
       </c>
       <c r="V19" s="11" t="str">
@@ -7558,7 +7521,7 @@
       <c r="I20" s="1">
         <v>18</v>
       </c>
-      <c r="J20" s="90" t="s">
+      <c r="J20" s="83" t="s">
         <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -7586,7 +7549,7 @@
         <f t="shared" si="2"/>
         <v>z</v>
       </c>
-      <c r="T20" s="91" t="s">
+      <c r="T20" s="84" t="s">
         <v>123</v>
       </c>
       <c r="V20" s="11" t="str">
@@ -7617,7 +7580,7 @@
       <c r="I21" s="1">
         <v>19</v>
       </c>
-      <c r="J21" s="90" t="s">
+      <c r="J21" s="83" t="s">
         <v>131</v>
       </c>
       <c r="K21" s="7" t="s">
@@ -7645,7 +7608,7 @@
         <f t="shared" si="2"/>
         <v>j</v>
       </c>
-      <c r="T21" s="91" t="s">
+      <c r="T21" s="84" t="s">
         <v>129</v>
       </c>
       <c r="V21" s="11" t="str">
@@ -7676,7 +7639,7 @@
       <c r="I22" s="1">
         <v>20</v>
       </c>
-      <c r="J22" s="90" t="s">
+      <c r="J22" s="83" t="s">
         <v>62</v>
       </c>
       <c r="K22" s="7" t="s">
@@ -7704,7 +7667,7 @@
         <f t="shared" si="2"/>
         <v>c</v>
       </c>
-      <c r="T22" s="91" t="s">
+      <c r="T22" s="84" t="s">
         <v>126</v>
       </c>
       <c r="V22" s="11" t="str">
@@ -7735,7 +7698,7 @@
       <c r="I23" s="1">
         <v>21</v>
       </c>
-      <c r="J23" s="90" t="s">
+      <c r="J23" s="83" t="s">
         <v>72</v>
       </c>
       <c r="K23" s="7" t="s">
@@ -7763,7 +7726,7 @@
         <f t="shared" si="2"/>
         <v>s</v>
       </c>
-      <c r="T23" s="91" t="s">
+      <c r="T23" s="84" t="s">
         <v>132</v>
       </c>
       <c r="V23" s="11" t="str">
@@ -7794,7 +7757,7 @@
       <c r="I24" s="1">
         <v>22</v>
       </c>
-      <c r="J24" s="90" t="s">
+      <c r="J24" s="83" t="s">
         <v>212</v>
       </c>
       <c r="K24" s="7" t="s">
@@ -7822,7 +7785,7 @@
         <f t="shared" si="2"/>
         <v>a</v>
       </c>
-      <c r="T24" s="91" t="s">
+      <c r="T24" s="84" t="s">
         <v>136</v>
       </c>
       <c r="V24" s="11" t="str">
@@ -7857,7 +7820,7 @@
       <c r="I25" s="1">
         <v>23</v>
       </c>
-      <c r="J25" s="90" t="s">
+      <c r="J25" s="83" t="s">
         <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
@@ -7885,7 +7848,7 @@
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-      <c r="T25" s="91" t="s">
+      <c r="T25" s="84" t="s">
         <v>170</v>
       </c>
       <c r="V25" s="11" t="str">
@@ -7920,7 +7883,7 @@
       <c r="I26" s="1">
         <v>24</v>
       </c>
-      <c r="J26" s="90" t="s">
+      <c r="J26" s="83" t="s">
         <v>41</v>
       </c>
       <c r="K26" s="7" t="s">
@@ -7948,7 +7911,7 @@
         <f t="shared" si="2"/>
         <v>O</v>
       </c>
-      <c r="T26" s="91" t="s">
+      <c r="T26" s="84" t="s">
         <v>137</v>
       </c>
       <c r="V26" s="11" t="str">
@@ -7975,7 +7938,7 @@
       <c r="I27" s="1">
         <v>25</v>
       </c>
-      <c r="J27" s="90" t="s">
+      <c r="J27" s="83" t="s">
         <v>150</v>
       </c>
       <c r="K27" s="7" t="s">
@@ -8003,7 +7966,7 @@
         <f t="shared" si="2"/>
         <v>Q</v>
       </c>
-      <c r="T27" s="91" t="s">
+      <c r="T27" s="84" t="s">
         <v>173</v>
       </c>
       <c r="V27" s="11" t="str">
@@ -8030,7 +7993,7 @@
       <c r="I28" s="1">
         <v>26</v>
       </c>
-      <c r="J28" s="90" t="s">
+      <c r="J28" s="83" t="s">
         <v>66</v>
       </c>
       <c r="K28" s="7" t="s">
@@ -8058,7 +8021,7 @@
         <f t="shared" si="2"/>
         <v>o</v>
       </c>
-      <c r="T28" s="91" t="s">
+      <c r="T28" s="84" t="s">
         <v>139</v>
       </c>
       <c r="V28" s="11" t="str">
@@ -8085,7 +8048,7 @@
       <c r="I29" s="1">
         <v>27</v>
       </c>
-      <c r="J29" s="90" t="s">
+      <c r="J29" s="83" t="s">
         <v>31</v>
       </c>
       <c r="K29" s="7" t="s">
@@ -8113,7 +8076,7 @@
         <f t="shared" si="2"/>
         <v>e</v>
       </c>
-      <c r="T29" s="91" t="s">
+      <c r="T29" s="84" t="s">
         <v>214</v>
       </c>
       <c r="V29" s="11" t="str">
@@ -8140,7 +8103,7 @@
       <c r="I30" s="1">
         <v>28</v>
       </c>
-      <c r="J30" s="90" t="s">
+      <c r="J30" s="83" t="s">
         <v>138</v>
       </c>
       <c r="K30" s="7" t="s">
@@ -8168,7 +8131,7 @@
         <f t="shared" si="2"/>
         <v>E</v>
       </c>
-      <c r="T30" s="91" t="s">
+      <c r="T30" s="84" t="s">
         <v>214</v>
       </c>
       <c r="V30" s="11" t="str">
@@ -8195,7 +8158,7 @@
       <c r="I31" s="1">
         <v>29</v>
       </c>
-      <c r="J31" s="90" t="s">
+      <c r="J31" s="83" t="s">
         <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
@@ -8223,7 +8186,7 @@
         <f t="shared" si="2"/>
         <v>y</v>
       </c>
-      <c r="T31" s="91" t="s">
+      <c r="T31" s="84" t="s">
         <v>149</v>
       </c>
       <c r="V31" s="11" t="str">
@@ -8250,7 +8213,7 @@
       <c r="I32" s="1">
         <v>30</v>
       </c>
-      <c r="J32" s="90" t="s">
+      <c r="J32" s="83" t="s">
         <v>179</v>
       </c>
       <c r="K32" s="7" t="s">
@@ -8278,7 +8241,7 @@
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="T32" s="91" t="s">
+      <c r="T32" s="84" t="s">
         <v>177</v>
       </c>
       <c r="V32" s="11" t="str">
@@ -8305,7 +8268,7 @@
       <c r="I33" s="1">
         <v>31</v>
       </c>
-      <c r="J33" s="90" t="s">
+      <c r="J33" s="83" t="s">
         <v>69</v>
       </c>
       <c r="K33" s="7" t="s">
@@ -8333,7 +8296,7 @@
         <f t="shared" si="2"/>
         <v>x</v>
       </c>
-      <c r="T33" s="91" t="s">
+      <c r="T33" s="84" t="s">
         <v>153</v>
       </c>
       <c r="V33" s="11" t="str">
@@ -8360,7 +8323,7 @@
       <c r="I34" s="1">
         <v>32</v>
       </c>
-      <c r="J34" s="90" t="s">
+      <c r="J34" s="83" t="s">
         <v>152</v>
       </c>
       <c r="K34" s="7" t="s">
@@ -8388,7 +8351,7 @@
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="T34" s="91" t="s">
+      <c r="T34" s="84" t="s">
         <v>180</v>
       </c>
       <c r="V34" s="11" t="str">
@@ -8415,7 +8378,7 @@
       <c r="I35" s="1">
         <v>33</v>
       </c>
-      <c r="J35" s="90" t="s">
+      <c r="J35" s="83" t="s">
         <v>140</v>
       </c>
       <c r="K35" s="7" t="s">
@@ -8443,7 +8406,7 @@
         <f t="shared" si="2"/>
         <v>{</v>
       </c>
-      <c r="T35" s="91" t="s">
+      <c r="T35" s="84" t="s">
         <v>182</v>
       </c>
       <c r="V35" s="11" t="str">
@@ -8470,7 +8433,7 @@
       <c r="I36" s="1">
         <v>34</v>
       </c>
-      <c r="J36" s="90" t="s">
+      <c r="J36" s="83" t="s">
         <v>176</v>
       </c>
       <c r="K36" s="7" t="s">
@@ -8498,7 +8461,7 @@
         <f t="shared" si="2"/>
         <v>}</v>
       </c>
-      <c r="T36" s="91" t="s">
+      <c r="T36" s="84" t="s">
         <v>184</v>
       </c>
       <c r="V36" s="11" t="str">
@@ -8525,7 +8488,7 @@
       <c r="I37" s="1">
         <v>35</v>
       </c>
-      <c r="J37" s="90" t="s">
+      <c r="J37" s="83" t="s">
         <v>37</v>
       </c>
       <c r="K37" s="7" t="s">
@@ -8553,7 +8516,7 @@
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="T37" s="91" t="s">
+      <c r="T37" s="84" t="s">
         <v>155</v>
       </c>
       <c r="V37" s="11" t="str">
@@ -8571,7 +8534,7 @@
       <c r="E38" s="1">
         <v>36</v>
       </c>
-      <c r="F38" s="93" t="s">
+      <c r="F38" s="86" t="s">
         <v>261</v>
       </c>
       <c r="G38" s="8" t="s">
@@ -8580,7 +8543,7 @@
       <c r="I38" s="1">
         <v>36</v>
       </c>
-      <c r="J38" s="90" t="s">
+      <c r="J38" s="83" t="s">
         <v>218</v>
       </c>
       <c r="K38" s="7" t="s">
@@ -8608,7 +8571,7 @@
         <f t="shared" si="2"/>
         <v>@</v>
       </c>
-      <c r="T38" s="91" t="s">
+      <c r="T38" s="84" t="s">
         <v>151</v>
       </c>
       <c r="V38" s="11" t="str">
@@ -8635,7 +8598,7 @@
       <c r="I39" s="1">
         <v>37</v>
       </c>
-      <c r="J39" s="90" t="s">
+      <c r="J39" s="83" t="s">
         <v>83</v>
       </c>
       <c r="K39" s="7" t="s">
@@ -8663,7 +8626,7 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="T39" s="91" t="s">
+      <c r="T39" s="84" t="s">
         <v>141</v>
       </c>
       <c r="V39" s="11" t="str">
@@ -8690,7 +8653,7 @@
       <c r="I40" s="1">
         <v>38</v>
       </c>
-      <c r="J40" s="90" t="s">
+      <c r="J40" s="83" t="s">
         <v>145</v>
       </c>
       <c r="K40" s="7" t="s">
@@ -8718,7 +8681,7 @@
         <f t="shared" si="2"/>
         <v>[</v>
       </c>
-      <c r="T40" s="91" t="s">
+      <c r="T40" s="84" t="s">
         <v>143</v>
       </c>
       <c r="V40" s="11" t="str">
@@ -8745,7 +8708,7 @@
       <c r="I41" s="1">
         <v>39</v>
       </c>
-      <c r="J41" s="90" t="s">
+      <c r="J41" s="83" t="s">
         <v>221</v>
       </c>
       <c r="K41" s="7" t="s">
@@ -8773,7 +8736,7 @@
         <f t="shared" si="2"/>
         <v>]</v>
       </c>
-      <c r="T41" s="91" t="s">
+      <c r="T41" s="84" t="s">
         <v>187</v>
       </c>
       <c r="V41" s="11" t="str">
@@ -8800,7 +8763,7 @@
       <c r="I42" s="1">
         <v>40</v>
       </c>
-      <c r="J42" s="90" t="s">
+      <c r="J42" s="83" t="s">
         <v>148</v>
       </c>
       <c r="K42" s="7" t="s">
@@ -8828,7 +8791,7 @@
         <f t="shared" si="2"/>
         <v>R</v>
       </c>
-      <c r="T42" s="91" t="s">
+      <c r="T42" s="84" t="s">
         <v>146</v>
       </c>
       <c r="V42" s="11" t="str">
@@ -8855,7 +8818,7 @@
       <c r="I43" s="1">
         <v>41</v>
       </c>
-      <c r="J43" s="90" t="s">
+      <c r="J43" s="83" t="s">
         <v>223</v>
       </c>
       <c r="K43" s="7" t="s">
@@ -8883,7 +8846,7 @@
         <f t="shared" si="2"/>
         <v>r</v>
       </c>
-      <c r="T43" s="91" t="s">
+      <c r="T43" s="84" t="s">
         <v>189</v>
       </c>
       <c r="V43" s="11" t="str">
@@ -8910,7 +8873,7 @@
       <c r="I44" s="1">
         <v>42</v>
       </c>
-      <c r="J44" s="90" t="s">
+      <c r="J44" s="83" t="s">
         <v>39</v>
       </c>
       <c r="K44" s="7" t="s">
@@ -8938,7 +8901,7 @@
         <f t="shared" si="2"/>
         <v>i</v>
       </c>
-      <c r="T44" s="91" t="s">
+      <c r="T44" s="84" t="s">
         <v>134</v>
       </c>
       <c r="V44" s="11" t="str">
@@ -8965,7 +8928,7 @@
       <c r="I45" s="1">
         <v>43</v>
       </c>
-      <c r="J45" s="90" t="s">
+      <c r="J45" s="83" t="s">
         <v>154</v>
       </c>
       <c r="K45" s="7" t="s">
@@ -8983,7 +8946,7 @@
         <f t="shared" si="2"/>
         <v>I</v>
       </c>
-      <c r="T45" s="91" t="s">
+      <c r="T45" s="84" t="s">
         <v>134</v>
       </c>
     </row>
@@ -9000,7 +8963,7 @@
       <c r="I46" s="1">
         <v>44</v>
       </c>
-      <c r="J46" s="90" t="s">
+      <c r="J46" s="83" t="s">
         <v>130</v>
       </c>
       <c r="K46" s="7" t="s">
@@ -9017,10 +8980,10 @@
         <f t="shared" si="2"/>
         <v>u</v>
       </c>
-      <c r="T46" s="91" t="s">
+      <c r="T46" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="V46" s="92" t="str">
+      <c r="V46" s="85" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(S3:S23)</f>
         <v>pbPmtTnlkgKGhZJCSzjcs</v>
       </c>
@@ -9038,7 +9001,7 @@
       <c r="I47" s="1">
         <v>45</v>
       </c>
-      <c r="J47" s="90" t="s">
+      <c r="J47" s="83" t="s">
         <v>169</v>
       </c>
       <c r="K47" s="7" t="s">
@@ -9055,7 +9018,7 @@
         <f t="shared" si="2"/>
         <v>U</v>
       </c>
-      <c r="T47" s="91" t="s">
+      <c r="T47" s="84" t="s">
         <v>167</v>
       </c>
     </row>
@@ -9072,7 +9035,7 @@
       <c r="I48" s="1">
         <v>46</v>
       </c>
-      <c r="J48" s="90" t="s">
+      <c r="J48" s="83" t="s">
         <v>158</v>
       </c>
       <c r="K48" s="7" t="s">
@@ -9089,7 +9052,7 @@
         <f>F51</f>
         <v>9</v>
       </c>
-      <c r="T48" s="91" t="s">
+      <c r="T48" s="84" t="s">
         <v>194</v>
       </c>
     </row>
@@ -9106,7 +9069,7 @@
       <c r="I49" s="1">
         <v>47</v>
       </c>
-      <c r="J49" s="90" t="s">
+      <c r="J49" s="83" t="s">
         <v>224</v>
       </c>
       <c r="K49" s="7" t="s">
@@ -9123,7 +9086,7 @@
         <f>F52</f>
         <v>&gt;</v>
       </c>
-      <c r="T49" s="91" t="s">
+      <c r="T49" s="84" t="s">
         <v>195</v>
       </c>
       <c r="V49" t="s">
@@ -9143,7 +9106,7 @@
       <c r="I50" s="1">
         <v>48</v>
       </c>
-      <c r="J50" s="90" t="s">
+      <c r="J50" s="83" t="s">
         <v>225</v>
       </c>
       <c r="K50" s="7" t="s">
@@ -9160,7 +9123,7 @@
         <f>F53</f>
         <v>&lt;</v>
       </c>
-      <c r="T50" s="91" t="s">
+      <c r="T50" s="84" t="s">
         <v>196</v>
       </c>
       <c r="V50">
@@ -9181,7 +9144,7 @@
       <c r="I51" s="1">
         <v>49</v>
       </c>
-      <c r="J51" s="90" t="s">
+      <c r="J51" s="83" t="s">
         <v>78</v>
       </c>
       <c r="K51" s="7" t="s">
@@ -9198,7 +9161,7 @@
         <f>F54</f>
         <v>4</v>
       </c>
-      <c r="T51" s="91" t="s">
+      <c r="T51" s="84" t="s">
         <v>197</v>
       </c>
     </row>
@@ -9215,7 +9178,7 @@
       <c r="I52" s="1">
         <v>50</v>
       </c>
-      <c r="J52" s="90" t="s">
+      <c r="J52" s="83" t="s">
         <v>76</v>
       </c>
       <c r="K52" s="7" t="s">
@@ -9232,7 +9195,7 @@
         <f>F48</f>
         <v>1</v>
       </c>
-      <c r="T52" s="91" t="s">
+      <c r="T52" s="84" t="s">
         <v>158</v>
       </c>
     </row>
@@ -9249,7 +9212,7 @@
       <c r="I53" s="1">
         <v>51</v>
       </c>
-      <c r="J53" s="90" t="s">
+      <c r="J53" s="83" t="s">
         <v>54</v>
       </c>
       <c r="K53" s="7" t="s">
@@ -9266,7 +9229,7 @@
         <f>F49</f>
         <v>2</v>
       </c>
-      <c r="T53" s="91" t="s">
+      <c r="T53" s="84" t="s">
         <v>161</v>
       </c>
     </row>
@@ -9283,7 +9246,7 @@
       <c r="I54" s="1">
         <v>52</v>
       </c>
-      <c r="J54" s="90" t="s">
+      <c r="J54" s="83" t="s">
         <v>211</v>
       </c>
       <c r="K54" s="7" t="s">
@@ -9300,7 +9263,7 @@
         <f>F50</f>
         <v>3</v>
       </c>
-      <c r="T54" s="91" t="s">
+      <c r="T54" s="84" t="s">
         <v>163</v>
       </c>
     </row>
@@ -9317,7 +9280,7 @@
       <c r="I55" s="1">
         <v>53</v>
       </c>
-      <c r="J55" s="90" t="s">
+      <c r="J55" s="83" t="s">
         <v>227</v>
       </c>
       <c r="K55" s="7" t="s">
@@ -9334,7 +9297,7 @@
         <f>F55</f>
         <v>5</v>
       </c>
-      <c r="T55" s="91" t="s">
+      <c r="T55" s="84" t="s">
         <v>160</v>
       </c>
     </row>
@@ -9351,7 +9314,7 @@
       <c r="I56" s="1">
         <v>54</v>
       </c>
-      <c r="J56" s="90" t="s">
+      <c r="J56" s="83" t="s">
         <v>228</v>
       </c>
       <c r="K56" s="7" t="s">
@@ -9368,7 +9331,7 @@
         <f>F56</f>
         <v>7</v>
       </c>
-      <c r="T56" s="91" t="s">
+      <c r="T56" s="84" t="s">
         <v>164</v>
       </c>
     </row>
@@ -9385,7 +9348,7 @@
       <c r="I57" s="1">
         <v>55</v>
       </c>
-      <c r="J57" s="90" t="s">
+      <c r="J57" s="83" t="s">
         <v>229</v>
       </c>
       <c r="K57" s="7" t="s">
@@ -9402,7 +9365,7 @@
         <f>F57</f>
         <v>0</v>
       </c>
-      <c r="T57" s="91" t="s">
+      <c r="T57" s="84" t="s">
         <v>162</v>
       </c>
     </row>
@@ -9519,7 +9482,7 @@
     <col min="6" max="7" width="10.796875" customWidth="1"/>
     <col min="9" max="9" width="8.796875" style="1"/>
     <col min="10" max="10" width="4.69921875" style="1" customWidth="1"/>
-    <col min="11" max="14" width="11.09765625" style="86" customWidth="1"/>
+    <col min="11" max="14" width="11.09765625" style="79" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="32.25">
@@ -9561,16 +9524,16 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="85" t="s">
+      <c r="L4" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="85" t="s">
+      <c r="M4" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="78" t="s">
         <v>202</v>
       </c>
       <c r="O4"/>
@@ -9598,16 +9561,16 @@
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="86" t="s">
+      <c r="K5" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="L5" s="87" t="s">
+      <c r="L5" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="M5" s="88" t="s">
+      <c r="M5" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="N5" s="87" t="str">
+      <c r="N5" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[p]</v>
       </c>
@@ -9635,16 +9598,16 @@
       <c r="J6" s="1">
         <v>2</v>
       </c>
-      <c r="K6" s="86" t="s">
+      <c r="K6" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="L6" s="87" t="s">
+      <c r="L6" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="88" t="s">
+      <c r="M6" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="N6" s="87" t="str">
+      <c r="N6" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[b]</v>
       </c>
@@ -9672,16 +9635,16 @@
       <c r="J7" s="1">
         <v>3</v>
       </c>
-      <c r="K7" s="86" t="s">
+      <c r="K7" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="87" t="s">
+      <c r="L7" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="N7" s="87" t="str">
+      <c r="N7" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[pʰ]</v>
       </c>
@@ -9710,16 +9673,16 @@
       <c r="J8" s="1">
         <v>4</v>
       </c>
-      <c r="K8" s="86" t="s">
+      <c r="K8" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="87" t="s">
+      <c r="L8" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="88" t="s">
+      <c r="M8" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="N8" s="87" t="str">
+      <c r="N8" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[m]</v>
       </c>
@@ -9747,16 +9710,16 @@
       <c r="J9" s="1">
         <v>5</v>
       </c>
-      <c r="K9" s="86" t="s">
+      <c r="K9" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="M9" s="88" t="s">
+      <c r="M9" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="N9" s="87" t="str">
+      <c r="N9" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[t]</v>
       </c>
@@ -9784,16 +9747,16 @@
       <c r="J10" s="1">
         <v>6</v>
       </c>
-      <c r="K10" s="86" t="s">
+      <c r="K10" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="L10" s="87" t="s">
+      <c r="L10" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="M10" s="88" t="s">
+      <c r="M10" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="N10" s="87" t="str">
+      <c r="N10" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[tʰ]</v>
       </c>
@@ -9821,16 +9784,16 @@
       <c r="J11" s="1">
         <v>7</v>
       </c>
-      <c r="K11" s="86" t="s">
+      <c r="K11" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="87" t="s">
+      <c r="L11" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="88" t="s">
+      <c r="M11" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="87" t="str">
+      <c r="N11" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[n]</v>
       </c>
@@ -9858,16 +9821,16 @@
       <c r="J12" s="1">
         <v>8</v>
       </c>
-      <c r="K12" s="86" t="s">
+      <c r="K12" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="L12" s="87" t="s">
+      <c r="L12" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="88" t="s">
+      <c r="M12" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="N12" s="87" t="str">
+      <c r="N12" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[l]</v>
       </c>
@@ -9895,16 +9858,16 @@
       <c r="J13" s="1">
         <v>9</v>
       </c>
-      <c r="K13" s="86" t="s">
+      <c r="K13" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="87" t="s">
+      <c r="L13" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="88" t="s">
+      <c r="M13" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="N13" s="87" t="str">
+      <c r="N13" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[k]</v>
       </c>
@@ -9932,16 +9895,16 @@
       <c r="J14" s="1">
         <v>10</v>
       </c>
-      <c r="K14" s="86" t="s">
+      <c r="K14" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="L14" s="87" t="s">
+      <c r="L14" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="M14" s="88" t="s">
+      <c r="M14" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="N14" s="87" t="str">
+      <c r="N14" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[k]</v>
       </c>
@@ -9969,16 +9932,16 @@
       <c r="J15" s="1">
         <v>11</v>
       </c>
-      <c r="K15" s="86" t="s">
+      <c r="K15" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="L15" s="87" t="s">
+      <c r="L15" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="M15" s="88" t="s">
+      <c r="M15" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="N15" s="87" t="str">
+      <c r="N15" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[kʰ]</v>
       </c>
@@ -10006,16 +9969,16 @@
       <c r="J16" s="1">
         <v>12</v>
       </c>
-      <c r="K16" s="86" t="s">
+      <c r="K16" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="L16" s="87" t="s">
+      <c r="L16" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="M16" s="88" t="s">
+      <c r="M16" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="N16" s="87" t="str">
+      <c r="N16" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[kʰ]</v>
       </c>
@@ -10043,16 +10006,16 @@
       <c r="J17" s="1">
         <v>13</v>
       </c>
-      <c r="K17" s="86" t="s">
+      <c r="K17" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="L17" s="87" t="s">
+      <c r="L17" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="88" t="s">
+      <c r="M17" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="N17" s="87" t="str">
+      <c r="N17" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[h]</v>
       </c>
@@ -10080,16 +10043,16 @@
       <c r="J18" s="1">
         <v>14</v>
       </c>
-      <c r="K18" s="86" t="s">
+      <c r="K18" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="L18" s="87" t="s">
+      <c r="L18" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="M18" s="88" t="s">
+      <c r="M18" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="N18" s="87" t="str">
+      <c r="N18" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[t͡ɕ]</v>
       </c>
@@ -10117,16 +10080,16 @@
       <c r="J19" s="1">
         <v>15</v>
       </c>
-      <c r="K19" s="86" t="s">
+      <c r="K19" s="79" t="s">
         <v>171</v>
       </c>
-      <c r="L19" s="87" t="s">
+      <c r="L19" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="M19" s="88" t="s">
+      <c r="M19" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="N19" s="87" t="str">
+      <c r="N19" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[t͡ɕ]</v>
       </c>
@@ -10154,16 +10117,16 @@
       <c r="J20" s="1">
         <v>16</v>
       </c>
-      <c r="K20" s="86" t="s">
+      <c r="K20" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="L20" s="87" t="s">
+      <c r="L20" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="M20" s="88" t="s">
+      <c r="M20" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="N20" s="87" t="str">
+      <c r="N20" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[t͡ɕʰ]</v>
       </c>
@@ -10187,16 +10150,16 @@
       <c r="J21" s="1">
         <v>17</v>
       </c>
-      <c r="K21" s="86" t="s">
+      <c r="K21" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="L21" s="87" t="s">
+      <c r="L21" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="M21" s="88" t="s">
+      <c r="M21" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="N21" s="87" t="str">
+      <c r="N21" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[ɕ]</v>
       </c>
@@ -10220,16 +10183,16 @@
       <c r="J22" s="1">
         <v>18</v>
       </c>
-      <c r="K22" s="86" t="s">
+      <c r="K22" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="L22" s="87" t="s">
+      <c r="L22" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="M22" s="88" t="s">
+      <c r="M22" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="N22" s="87" t="str">
+      <c r="N22" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[t͡s]</v>
       </c>
@@ -10253,16 +10216,16 @@
       <c r="J23" s="1">
         <v>19</v>
       </c>
-      <c r="K23" s="86" t="s">
+      <c r="K23" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="L23" s="87" t="s">
+      <c r="L23" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="M23" s="88" t="s">
+      <c r="M23" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="N23" s="87" t="str">
+      <c r="N23" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[t͡s]</v>
       </c>
@@ -10272,30 +10235,30 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="E24" s="78" t="s">
+      <c r="E24" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="79"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="61"/>
       <c r="J24" s="1">
         <v>20</v>
       </c>
-      <c r="K24" s="86" t="s">
+      <c r="K24" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="L24" s="87" t="s">
+      <c r="L24" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="M24" s="88" t="s">
+      <c r="M24" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="N24" s="87" t="str">
+      <c r="N24" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[t͡sʰ]</v>
       </c>
@@ -10323,16 +10286,16 @@
       <c r="J25" s="1">
         <v>21</v>
       </c>
-      <c r="K25" s="86" t="s">
+      <c r="K25" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="L25" s="87" t="s">
+      <c r="L25" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="88" t="s">
+      <c r="M25" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="N25" s="87" t="str">
+      <c r="N25" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[s]</v>
       </c>
@@ -10360,53 +10323,53 @@
       <c r="J26" s="1">
         <v>22</v>
       </c>
-      <c r="K26" s="86" t="s">
+      <c r="K26" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="L26" s="87" t="s">
+      <c r="L26" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="M26" s="88" t="s">
+      <c r="M26" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="N26" s="87" t="str">
+      <c r="N26" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[a]</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="38.25">
-      <c r="B27" s="81">
+      <c r="B27" s="57">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="78" t="s">
+      <c r="E27" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="79" t="s">
+      <c r="F27" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="82" t="s">
+      <c r="G27" s="49" t="s">
         <v>39</v>
       </c>
       <c r="J27" s="1">
         <v>23</v>
       </c>
-      <c r="K27" s="86" t="s">
+      <c r="K27" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="L27" s="87" t="s">
+      <c r="L27" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="M27" s="88" t="s">
+      <c r="M27" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="N27" s="87" t="str">
+      <c r="N27" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[p]</v>
       </c>
@@ -10434,16 +10397,16 @@
       <c r="J28" s="1">
         <v>24</v>
       </c>
-      <c r="K28" s="86" t="s">
+      <c r="K28" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="87" t="s">
+      <c r="L28" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="M28" s="88" t="s">
+      <c r="M28" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="N28" s="87" t="str">
+      <c r="N28" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[ɔ]</v>
       </c>
@@ -10471,16 +10434,16 @@
       <c r="J29" s="1">
         <v>25</v>
       </c>
-      <c r="K29" s="86" t="s">
+      <c r="K29" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="L29" s="87" t="s">
+      <c r="L29" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="M29" s="88" t="s">
+      <c r="M29" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="N29" s="87" t="str">
+      <c r="N29" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[ɔ]</v>
       </c>
@@ -10508,16 +10471,16 @@
       <c r="J30" s="1">
         <v>26</v>
       </c>
-      <c r="K30" s="86" t="s">
+      <c r="K30" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="L30" s="87" t="s">
+      <c r="L30" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="88" t="s">
+      <c r="M30" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="N30" s="87" t="str">
+      <c r="N30" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[ə]</v>
       </c>
@@ -10545,16 +10508,16 @@
       <c r="J31" s="1">
         <v>27</v>
       </c>
-      <c r="K31" s="86" t="s">
+      <c r="K31" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="L31" s="87" t="s">
+      <c r="L31" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="M31" s="88" t="s">
+      <c r="M31" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="N31" s="87" t="str">
+      <c r="N31" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[e]</v>
       </c>
@@ -10582,16 +10545,16 @@
       <c r="J32" s="1">
         <v>28</v>
       </c>
-      <c r="K32" s="86" t="s">
+      <c r="K32" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="L32" s="87" t="s">
+      <c r="L32" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="M32" s="88" t="s">
+      <c r="M32" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="N32" s="87" t="str">
+      <c r="N32" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[e]</v>
       </c>
@@ -10619,16 +10582,16 @@
       <c r="J33" s="1">
         <v>29</v>
       </c>
-      <c r="K33" s="86" t="s">
+      <c r="K33" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="L33" s="87" t="s">
+      <c r="L33" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="M33" s="88" t="s">
+      <c r="M33" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="N33" s="87" t="str">
+      <c r="N33" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[ai]</v>
       </c>
@@ -10656,16 +10619,16 @@
       <c r="J34" s="1">
         <v>30</v>
       </c>
-      <c r="K34" s="86" t="s">
+      <c r="K34" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="L34" s="87" t="s">
+      <c r="L34" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="M34" s="88" t="s">
+      <c r="M34" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="N34" s="87" t="str">
+      <c r="N34" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[ãĩ]</v>
       </c>
@@ -10693,16 +10656,16 @@
       <c r="J35" s="1">
         <v>31</v>
       </c>
-      <c r="K35" s="86" t="s">
+      <c r="K35" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="L35" s="87" t="s">
+      <c r="L35" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="M35" s="88" t="s">
+      <c r="M35" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="N35" s="87" t="str">
+      <c r="N35" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[au]</v>
       </c>
@@ -10730,16 +10693,16 @@
       <c r="J36" s="1">
         <v>32</v>
       </c>
-      <c r="K36" s="86" t="s">
+      <c r="K36" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="L36" s="87" t="s">
+      <c r="L36" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="M36" s="88" t="s">
+      <c r="M36" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="N36" s="87" t="str">
+      <c r="N36" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[au]</v>
       </c>
@@ -10767,16 +10730,16 @@
       <c r="J37" s="1">
         <v>33</v>
       </c>
-      <c r="K37" s="86" t="s">
+      <c r="K37" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="L37" s="87" t="s">
+      <c r="L37" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="M37" s="88" t="s">
+      <c r="M37" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="N37" s="87" t="str">
+      <c r="N37" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[am]</v>
       </c>
@@ -10804,16 +10767,16 @@
       <c r="J38" s="1">
         <v>34</v>
       </c>
-      <c r="K38" s="86" t="s">
+      <c r="K38" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="L38" s="87" t="s">
+      <c r="L38" s="80" t="s">
         <v>217</v>
       </c>
-      <c r="M38" s="88" t="s">
+      <c r="M38" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="N38" s="87" t="str">
+      <c r="N38" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[ɔm]</v>
       </c>
@@ -10841,16 +10804,16 @@
       <c r="J39" s="1">
         <v>35</v>
       </c>
-      <c r="K39" s="86" t="s">
+      <c r="K39" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="L39" s="87" t="s">
+      <c r="L39" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="M39" s="88" t="s">
+      <c r="M39" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="N39" s="87" t="str">
+      <c r="N39" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[m̩]</v>
       </c>
@@ -10863,7 +10826,7 @@
       <c r="C40" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="D40" s="80" t="s">
+      <c r="D40" s="76" t="s">
         <v>256</v>
       </c>
       <c r="E40" s="74" t="s">
@@ -10878,16 +10841,16 @@
       <c r="J40" s="1">
         <v>36</v>
       </c>
-      <c r="K40" s="86" t="s">
+      <c r="K40" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="L40" s="87" t="s">
+      <c r="L40" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="M40" s="88" t="s">
+      <c r="M40" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="N40" s="87" t="str">
+      <c r="N40" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[an]</v>
       </c>
@@ -10915,16 +10878,16 @@
       <c r="J41" s="1">
         <v>37</v>
       </c>
-      <c r="K41" s="86" t="s">
+      <c r="K41" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="L41" s="87" t="s">
+      <c r="L41" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="M41" s="88" t="s">
+      <c r="M41" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="N41" s="87" t="str">
+      <c r="N41" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[n]</v>
       </c>
@@ -10934,16 +10897,16 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="D42" s="77" t="s">
+      <c r="D42" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="E42" s="78" t="s">
+      <c r="E42" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="79" t="s">
+      <c r="F42" s="48" t="s">
         <v>168</v>
       </c>
       <c r="G42" s="61" t="s">
@@ -10952,16 +10915,16 @@
       <c r="J42" s="1">
         <v>38</v>
       </c>
-      <c r="K42" s="86" t="s">
+      <c r="K42" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="L42" s="87" t="s">
+      <c r="L42" s="80" t="s">
         <v>220</v>
       </c>
-      <c r="M42" s="88" t="s">
+      <c r="M42" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="N42" s="87" t="str">
+      <c r="N42" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[aŋ]</v>
       </c>
@@ -10971,16 +10934,16 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="77" t="s">
+      <c r="D43" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="E43" s="78" t="s">
+      <c r="E43" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="79" t="s">
+      <c r="F43" s="48" t="s">
         <v>171</v>
       </c>
       <c r="G43" s="61" t="s">
@@ -10989,16 +10952,16 @@
       <c r="J43" s="1">
         <v>39</v>
       </c>
-      <c r="K43" s="86" t="s">
+      <c r="K43" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="L43" s="87" t="s">
+      <c r="L43" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="M43" s="88" t="s">
+      <c r="M43" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="N43" s="87" t="str">
+      <c r="N43" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[ɔŋ]</v>
       </c>
@@ -11008,16 +10971,16 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C44" s="76" t="s">
+      <c r="C44" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D44" s="77" t="s">
+      <c r="D44" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="E44" s="78" t="s">
+      <c r="E44" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="F44" s="79" t="s">
+      <c r="F44" s="48" t="s">
         <v>174</v>
       </c>
       <c r="G44" s="61" t="s">
@@ -11026,16 +10989,16 @@
       <c r="J44" s="1">
         <v>40</v>
       </c>
-      <c r="K44" s="86" t="s">
+      <c r="K44" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="L44" s="87" t="s">
+      <c r="L44" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="M44" s="88" t="s">
+      <c r="M44" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="N44" s="87" t="str">
+      <c r="N44" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[əŋ]</v>
       </c>
@@ -11045,16 +11008,16 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C45" s="76" t="s">
+      <c r="C45" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="D45" s="77" t="s">
+      <c r="D45" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="E45" s="78" t="s">
+      <c r="E45" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="F45" s="79" t="s">
+      <c r="F45" s="48" t="s">
         <v>120</v>
       </c>
       <c r="G45" s="61" t="s">
@@ -11063,16 +11026,16 @@
       <c r="J45" s="1">
         <v>41</v>
       </c>
-      <c r="K45" s="86" t="s">
+      <c r="K45" s="79" t="s">
         <v>223</v>
       </c>
-      <c r="L45" s="87" t="s">
+      <c r="L45" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="M45" s="88" t="s">
+      <c r="M45" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="N45" s="87" t="str">
+      <c r="N45" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[ŋ̍]</v>
       </c>
@@ -11082,16 +11045,16 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C46" s="76" t="s">
+      <c r="C46" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="D46" s="77" t="s">
+      <c r="D46" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="E46" s="78" t="s">
+      <c r="E46" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="F46" s="79" t="s">
+      <c r="F46" s="48" t="s">
         <v>178</v>
       </c>
       <c r="G46" s="61" t="s">
@@ -11100,16 +11063,16 @@
       <c r="J46" s="1">
         <v>42</v>
       </c>
-      <c r="K46" s="86" t="s">
+      <c r="K46" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="L46" s="87" t="s">
+      <c r="L46" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="M46" s="88" t="s">
+      <c r="M46" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="N46" s="87" t="str">
+      <c r="N46" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[i]</v>
       </c>
@@ -11137,16 +11100,16 @@
       <c r="J47" s="1">
         <v>43</v>
       </c>
-      <c r="K47" s="86" t="s">
+      <c r="K47" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="L47" s="87" t="s">
+      <c r="L47" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="M47" s="88" t="s">
+      <c r="M47" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="N47" s="87" t="str">
+      <c r="N47" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[i]</v>
       </c>
@@ -11156,16 +11119,16 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C48" s="76" t="s">
+      <c r="C48" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="D48" s="77" t="s">
+      <c r="D48" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="78" t="s">
+      <c r="E48" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="79" t="s">
+      <c r="F48" s="48" t="s">
         <v>183</v>
       </c>
       <c r="G48" s="61" t="s">
@@ -11174,16 +11137,16 @@
       <c r="J48" s="1">
         <v>44</v>
       </c>
-      <c r="K48" s="86" t="s">
+      <c r="K48" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="L48" s="87" t="s">
+      <c r="L48" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="M48" s="88" t="s">
+      <c r="M48" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="N48" s="87" t="str">
+      <c r="N48" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[u]</v>
       </c>
@@ -11193,16 +11156,16 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C49" s="76" t="s">
+      <c r="C49" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="77" t="s">
+      <c r="D49" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="78" t="s">
+      <c r="E49" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="F49" s="79" t="s">
+      <c r="F49" s="48" t="s">
         <v>185</v>
       </c>
       <c r="G49" s="61" t="s">
@@ -11211,16 +11174,16 @@
       <c r="J49" s="1">
         <v>45</v>
       </c>
-      <c r="K49" s="86" t="s">
+      <c r="K49" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="L49" s="87" t="s">
+      <c r="L49" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="M49" s="88" t="s">
+      <c r="M49" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="N49" s="87" t="str">
+      <c r="N49" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[u]</v>
       </c>
@@ -11248,16 +11211,16 @@
       <c r="J50" s="1">
         <v>46</v>
       </c>
-      <c r="K50" s="86" t="s">
+      <c r="K50" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="L50" s="87" t="s">
+      <c r="L50" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="M50" s="88" t="s">
+      <c r="M50" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="N50" s="87" t="str">
+      <c r="N50" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v/>
       </c>
@@ -11270,7 +11233,7 @@
       <c r="C51" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="D51" s="83" t="s">
+      <c r="D51" s="77" t="s">
         <v>250</v>
       </c>
       <c r="E51" s="73" t="s">
@@ -11281,16 +11244,16 @@
       <c r="J51" s="1">
         <v>47</v>
       </c>
-      <c r="K51" s="86" t="s">
+      <c r="K51" s="79" t="s">
         <v>224</v>
       </c>
-      <c r="L51" s="87" t="s">
+      <c r="L51" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="M51" s="88" t="s">
+      <c r="M51" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="N51" s="87" t="str">
+      <c r="N51" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v/>
       </c>
@@ -11300,30 +11263,30 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C52" s="76" t="s">
+      <c r="C52" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="84" t="s">
+      <c r="D52" s="67" t="s">
         <v>252</v>
       </c>
-      <c r="E52" s="78" t="s">
+      <c r="E52" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="F52" s="79"/>
+      <c r="F52" s="48"/>
       <c r="G52" s="61"/>
       <c r="J52" s="1">
         <v>48</v>
       </c>
-      <c r="K52" s="86" t="s">
+      <c r="K52" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="L52" s="87" t="s">
+      <c r="L52" s="80" t="s">
         <v>225</v>
       </c>
-      <c r="M52" s="88" t="s">
+      <c r="M52" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="N52" s="87" t="str">
+      <c r="N52" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v/>
       </c>
@@ -11333,30 +11296,30 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C53" s="76" t="s">
+      <c r="C53" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="D53" s="84" t="s">
+      <c r="D53" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="E53" s="78" t="s">
+      <c r="E53" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="F53" s="79"/>
+      <c r="F53" s="48"/>
       <c r="G53" s="61"/>
       <c r="J53" s="1">
         <v>49</v>
       </c>
-      <c r="K53" s="86" t="s">
+      <c r="K53" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="L53" s="87" t="s">
+      <c r="L53" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="M53" s="88" t="s">
+      <c r="M53" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="N53" s="87" t="str">
+      <c r="N53" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[p̚]</v>
       </c>
@@ -11369,7 +11332,7 @@
       <c r="C54" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="80" t="s">
+      <c r="D54" s="76" t="s">
         <v>253</v>
       </c>
       <c r="E54" s="74" t="s">
@@ -11380,16 +11343,16 @@
       <c r="J54" s="1">
         <v>50</v>
       </c>
-      <c r="K54" s="86" t="s">
+      <c r="K54" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="L54" s="87" t="s">
+      <c r="L54" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="M54" s="88" t="s">
+      <c r="M54" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="N54" s="87" t="str">
+      <c r="N54" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[t̚]</v>
       </c>
@@ -11415,16 +11378,16 @@
       <c r="J55" s="1">
         <v>51</v>
       </c>
-      <c r="K55" s="86" t="s">
+      <c r="K55" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="L55" s="87" t="s">
+      <c r="L55" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="M55" s="88" t="s">
+      <c r="M55" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="N55" s="87" t="str">
+      <c r="N55" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[k̚]</v>
       </c>
@@ -11434,14 +11397,14 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C56" s="76" t="s">
+      <c r="C56" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="77">
+      <c r="D56" s="64">
         <v>5</v>
       </c>
-      <c r="E56" s="78"/>
-      <c r="F56" s="79">
+      <c r="E56" s="72"/>
+      <c r="F56" s="48">
         <v>5</v>
       </c>
       <c r="G56" s="61">
@@ -11450,16 +11413,16 @@
       <c r="J56" s="1">
         <v>52</v>
       </c>
-      <c r="K56" s="86" t="s">
+      <c r="K56" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="L56" s="87" t="s">
+      <c r="L56" s="80" t="s">
         <v>224</v>
       </c>
-      <c r="M56" s="88" t="s">
+      <c r="M56" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="N56" s="87" t="str">
+      <c r="N56" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v>[ʔ]</v>
       </c>
@@ -11469,14 +11432,14 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C57" s="76" t="s">
+      <c r="C57" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D57" s="77">
+      <c r="D57" s="64">
         <v>2</v>
       </c>
-      <c r="E57" s="78"/>
-      <c r="F57" s="79">
+      <c r="E57" s="72"/>
+      <c r="F57" s="48">
         <v>2</v>
       </c>
       <c r="G57" s="61">
@@ -11485,16 +11448,16 @@
       <c r="J57" s="1">
         <v>53</v>
       </c>
-      <c r="K57" s="86" t="s">
+      <c r="K57" s="79" t="s">
         <v>227</v>
       </c>
-      <c r="L57" s="87" t="s">
+      <c r="L57" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="M57" s="88" t="s">
+      <c r="M57" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="N57" s="87" t="str">
+      <c r="N57" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v/>
       </c>
@@ -11504,14 +11467,14 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C58" s="76" t="s">
+      <c r="C58" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="D58" s="77" t="s">
+      <c r="D58" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="E58" s="78"/>
-      <c r="F58" s="79" t="s">
+      <c r="E58" s="72"/>
+      <c r="F58" s="48" t="s">
         <v>159</v>
       </c>
       <c r="G58" s="61" t="s">
@@ -11520,16 +11483,16 @@
       <c r="J58" s="1">
         <v>54</v>
       </c>
-      <c r="K58" s="86" t="s">
+      <c r="K58" s="79" t="s">
         <v>228</v>
       </c>
-      <c r="L58" s="87" t="s">
+      <c r="L58" s="80" t="s">
         <v>229</v>
       </c>
-      <c r="M58" s="88" t="s">
+      <c r="M58" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="N58" s="87" t="str">
+      <c r="N58" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v/>
       </c>
@@ -11539,14 +11502,14 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C59" s="76" t="s">
+      <c r="C59" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="D59" s="77">
+      <c r="D59" s="64">
         <v>3</v>
       </c>
-      <c r="E59" s="78"/>
-      <c r="F59" s="79">
+      <c r="E59" s="72"/>
+      <c r="F59" s="48">
         <v>3</v>
       </c>
       <c r="G59" s="61">
@@ -11555,16 +11518,16 @@
       <c r="J59" s="1">
         <v>55</v>
       </c>
-      <c r="K59" s="86" t="s">
+      <c r="K59" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="L59" s="87" t="s">
+      <c r="L59" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="M59" s="88" t="s">
+      <c r="M59" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="N59" s="87" t="str">
+      <c r="N59" s="80" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$54, MATCH(表格1_3373[[#This Row],[方音符號]], $C$5:$C$54,0)), "")</f>
         <v/>
       </c>
@@ -11587,75 +11550,75 @@
       <c r="G60" s="63">
         <v>5</v>
       </c>
-      <c r="L60" s="87"/>
-      <c r="N60" s="87"/>
+      <c r="L60" s="80"/>
+      <c r="N60" s="80"/>
     </row>
     <row r="61" spans="2:14" ht="28.5">
-      <c r="L61" s="87"/>
-      <c r="N61" s="87"/>
+      <c r="L61" s="80"/>
+      <c r="N61" s="80"/>
     </row>
     <row r="62" spans="2:14" ht="28.5">
-      <c r="L62" s="87"/>
-      <c r="N62" s="87"/>
+      <c r="L62" s="80"/>
+      <c r="N62" s="80"/>
     </row>
     <row r="63" spans="2:14" ht="28.5">
-      <c r="L63" s="87"/>
-      <c r="N63" s="87"/>
+      <c r="L63" s="80"/>
+      <c r="N63" s="80"/>
     </row>
     <row r="64" spans="2:14" ht="28.5">
-      <c r="L64" s="87"/>
-      <c r="N64" s="87"/>
+      <c r="L64" s="80"/>
+      <c r="N64" s="80"/>
     </row>
     <row r="65" spans="12:14" ht="28.5">
-      <c r="L65" s="87"/>
-      <c r="N65" s="87"/>
+      <c r="L65" s="80"/>
+      <c r="N65" s="80"/>
     </row>
     <row r="66" spans="12:14" ht="28.5">
-      <c r="L66" s="87"/>
-      <c r="N66" s="87"/>
+      <c r="L66" s="80"/>
+      <c r="N66" s="80"/>
     </row>
     <row r="67" spans="12:14" ht="28.5">
-      <c r="L67" s="87"/>
-      <c r="N67" s="87"/>
+      <c r="L67" s="80"/>
+      <c r="N67" s="80"/>
     </row>
     <row r="68" spans="12:14" ht="28.5">
-      <c r="L68" s="87"/>
-      <c r="N68" s="87"/>
+      <c r="L68" s="80"/>
+      <c r="N68" s="80"/>
     </row>
     <row r="69" spans="12:14" ht="28.5">
-      <c r="L69" s="87"/>
-      <c r="N69" s="87"/>
+      <c r="L69" s="80"/>
+      <c r="N69" s="80"/>
     </row>
     <row r="70" spans="12:14" ht="28.5">
-      <c r="L70" s="87"/>
-      <c r="N70" s="87"/>
+      <c r="L70" s="80"/>
+      <c r="N70" s="80"/>
     </row>
     <row r="71" spans="12:14" ht="28.5">
-      <c r="L71" s="87"/>
-      <c r="N71" s="87"/>
+      <c r="L71" s="80"/>
+      <c r="N71" s="80"/>
     </row>
     <row r="72" spans="12:14" ht="28.5">
-      <c r="L72" s="87"/>
-      <c r="N72" s="87"/>
+      <c r="L72" s="80"/>
+      <c r="N72" s="80"/>
     </row>
     <row r="74" spans="12:14">
-      <c r="L74" s="86" t="str">
+      <c r="L74" s="79" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(按鍵編碼)</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="12:14">
-      <c r="L75" s="86" t="str">
+      <c r="L75" s="79" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(方音符號)</f>
         <v>ㄅㄆㄇﾟㄉㄊㄋㄌ˪ㄍㄎㄏˋㄫㆠㆣㆡˊㄗㄘㄙ˫ㄧㄨㆬㄚㆦㄜㄝＰＬㄥㄣ</v>
       </c>
     </row>
     <row r="76" spans="12:14">
-      <c r="L76" s="89" t="str">
+      <c r="L76" s="82" t="str">
         <f xml:space="preserve"> "xlit|" &amp; L74 &amp; "|" &amp; L75 &amp; "|"</f>
         <v>xlit||ㄅㄆㄇﾟㄉㄊㄋㄌ˪ㄍㄎㄏˋㄫㆠㆣㆡˊㄗㄘㄙ˫ㄧㄨㆬㄚㆦㄜㄝＰＬㄥㄣ|</v>
       </c>
-      <c r="N76" s="89"/>
+      <c r="N76" s="82"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
